--- a/data/zenodo/trade/_CHE_trd_gasoline.xlsx
+++ b/data/zenodo/trade/_CHE_trd_gasoline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41FB7B7-179C-1949-9146-C9B97D917B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7536AD92-4924-9844-95F6-6E0325ACA5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$304</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$305</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="52">
   <si>
     <t>Name:</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Table 39</t>
+  </si>
+  <si>
+    <t>cost_variable_om</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -270,7 +273,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -290,9 +292,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -330,9 +332,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,26 +367,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,26 +402,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,11 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G111" sqref="G111:G150"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -833,19 +801,13 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" t="s">
-        <v>33</v>
+      <c r="G14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -856,20 +818,20 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
       </c>
       <c r="J15" t="s">
         <v>30</v>
       </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -878,32 +840,20 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>1990</v>
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -920,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -955,10 +905,10 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G18">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -990,10 +940,10 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G19">
-        <v>44</v>
+        <v>528</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -1025,10 +975,10 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
@@ -1060,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1095,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1130,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="E23">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1165,7 +1115,7 @@
         <v>17</v>
       </c>
       <c r="E24">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1200,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="E25">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1235,10 +1185,10 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G26">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -1270,10 +1220,10 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -1305,10 +1255,10 @@
         <v>17</v>
       </c>
       <c r="E28">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G28">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -1340,10 +1290,10 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -1375,10 +1325,10 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G30">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
         <v>29</v>
@@ -1410,10 +1360,10 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -1445,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1480,7 +1430,7 @@
         <v>17</v>
       </c>
       <c r="E33">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1515,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1550,7 +1500,7 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1585,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1620,10 +1570,10 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G37">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -1655,10 +1605,10 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G38">
-        <v>748</v>
+        <v>220</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -1690,7 +1640,7 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G39">
         <v>748</v>
@@ -1725,10 +1675,10 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G40">
-        <v>528</v>
+        <v>748</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -1760,10 +1710,10 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G41">
-        <v>176</v>
+        <v>528</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -1795,10 +1745,10 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G42">
-        <v>440</v>
+        <v>176</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -1830,10 +1780,10 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G43">
-        <v>88</v>
+        <v>440</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -1865,10 +1815,10 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G44">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
@@ -1900,10 +1850,25 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G45">
+        <v>73</v>
       </c>
       <c r="H45" t="s">
         <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1914,31 +1879,16 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46">
-        <v>1990</v>
-      </c>
-      <c r="G46">
-        <v>131340</v>
+        <v>2019</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
-      </c>
-      <c r="I46" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L46" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1955,10 +1905,10 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G47">
-        <v>122980</v>
+        <v>131340</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
@@ -1990,10 +1940,10 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G48">
-        <v>128700</v>
+        <v>122980</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
@@ -2025,10 +1975,10 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G49">
-        <v>115588</v>
+        <v>128700</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
@@ -2060,10 +2010,10 @@
         <v>17</v>
       </c>
       <c r="E50">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G50">
-        <v>114312</v>
+        <v>115588</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
@@ -2095,10 +2045,10 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G51">
-        <v>111716</v>
+        <v>114312</v>
       </c>
       <c r="H51" t="s">
         <v>29</v>
@@ -2130,10 +2080,10 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G52">
-        <v>116776</v>
+        <v>111716</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -2165,10 +2115,10 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G53">
-        <v>113740</v>
+        <v>116776</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -2200,10 +2150,10 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G54">
-        <v>115148</v>
+        <v>113740</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -2235,10 +2185,10 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G55">
-        <v>115984</v>
+        <v>115148</v>
       </c>
       <c r="H55" t="s">
         <v>29</v>
@@ -2270,10 +2220,10 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G56">
-        <v>119724</v>
+        <v>115984</v>
       </c>
       <c r="H56" t="s">
         <v>29</v>
@@ -2305,10 +2255,10 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G57">
-        <v>118624</v>
+        <v>119724</v>
       </c>
       <c r="H57" t="s">
         <v>29</v>
@@ -2340,10 +2290,10 @@
         <v>17</v>
       </c>
       <c r="E58">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G58">
-        <v>116248</v>
+        <v>118624</v>
       </c>
       <c r="H58" t="s">
         <v>29</v>
@@ -2375,10 +2325,10 @@
         <v>17</v>
       </c>
       <c r="E59">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G59">
-        <v>118316</v>
+        <v>116248</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
@@ -2410,10 +2360,10 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G60">
-        <v>105116</v>
+        <v>118316</v>
       </c>
       <c r="H60" t="s">
         <v>29</v>
@@ -2445,10 +2395,10 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G61">
-        <v>102344</v>
+        <v>105116</v>
       </c>
       <c r="H61" t="s">
         <v>29</v>
@@ -2480,10 +2430,10 @@
         <v>17</v>
       </c>
       <c r="E62">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G62">
-        <v>88132</v>
+        <v>102344</v>
       </c>
       <c r="H62" t="s">
         <v>29</v>
@@ -2515,10 +2465,10 @@
         <v>17</v>
       </c>
       <c r="E63">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G63">
-        <v>93940</v>
+        <v>88132</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -2550,10 +2500,10 @@
         <v>17</v>
       </c>
       <c r="E64">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G64">
-        <v>85668</v>
+        <v>93940</v>
       </c>
       <c r="H64" t="s">
         <v>29</v>
@@ -2585,10 +2535,10 @@
         <v>17</v>
       </c>
       <c r="E65">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G65">
-        <v>82412</v>
+        <v>85668</v>
       </c>
       <c r="H65" t="s">
         <v>29</v>
@@ -2620,10 +2570,10 @@
         <v>17</v>
       </c>
       <c r="E66">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G66">
-        <v>81400</v>
+        <v>82412</v>
       </c>
       <c r="H66" t="s">
         <v>29</v>
@@ -2655,10 +2605,10 @@
         <v>17</v>
       </c>
       <c r="E67">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G67">
-        <v>75504</v>
+        <v>81400</v>
       </c>
       <c r="H67" t="s">
         <v>29</v>
@@ -2690,10 +2640,10 @@
         <v>17</v>
       </c>
       <c r="E68">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G68">
-        <v>83996</v>
+        <v>75504</v>
       </c>
       <c r="H68" t="s">
         <v>29</v>
@@ -2725,10 +2675,10 @@
         <v>17</v>
       </c>
       <c r="E69">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G69">
-        <v>61688</v>
+        <v>83996</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -2760,10 +2710,10 @@
         <v>17</v>
       </c>
       <c r="E70">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G70">
-        <v>54868</v>
+        <v>61688</v>
       </c>
       <c r="H70" t="s">
         <v>29</v>
@@ -2795,10 +2745,10 @@
         <v>17</v>
       </c>
       <c r="E71">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G71">
-        <v>72380</v>
+        <v>54868</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -2830,10 +2780,10 @@
         <v>17</v>
       </c>
       <c r="E72">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G72">
-        <v>75460</v>
+        <v>72380</v>
       </c>
       <c r="H72" t="s">
         <v>29</v>
@@ -2865,10 +2815,10 @@
         <v>17</v>
       </c>
       <c r="E73">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G73">
-        <v>72072</v>
+        <v>75460</v>
       </c>
       <c r="H73" t="s">
         <v>29</v>
@@ -2900,10 +2850,10 @@
         <v>17</v>
       </c>
       <c r="E74">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G74">
-        <v>69770.97</v>
+        <v>72072</v>
       </c>
       <c r="H74" t="s">
         <v>29</v>
@@ -2935,12 +2885,26 @@
         <v>17</v>
       </c>
       <c r="E75">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G75">
+        <v>69770.97</v>
       </c>
       <c r="H75" t="s">
         <v>29</v>
       </c>
-      <c r="K75" s="2"/>
+      <c r="I75" t="s">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s">
+        <v>38</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -2950,29 +2914,18 @@
         <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
       </c>
       <c r="E76">
-        <v>1990</v>
-      </c>
-      <c r="G76">
-        <v>0.85</v>
+        <v>2019</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
-      </c>
-      <c r="J76" t="s">
-        <v>48</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L76" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -2988,10 +2941,10 @@
         <v>17</v>
       </c>
       <c r="E77">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G77">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
@@ -3020,10 +2973,10 @@
         <v>17</v>
       </c>
       <c r="E78">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G78">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="H78" t="s">
         <v>47</v>
@@ -3052,10 +3005,10 @@
         <v>17</v>
       </c>
       <c r="E79">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G79">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="s">
         <v>47</v>
@@ -3084,10 +3037,10 @@
         <v>17</v>
       </c>
       <c r="E80">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G80">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="H80" t="s">
         <v>47</v>
@@ -3116,10 +3069,10 @@
         <v>17</v>
       </c>
       <c r="E81">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G81">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="H81" t="s">
         <v>47</v>
@@ -3148,10 +3101,10 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G82">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="H82" t="s">
         <v>47</v>
@@ -3180,10 +3133,10 @@
         <v>17</v>
       </c>
       <c r="E83">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G83">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="H83" t="s">
         <v>47</v>
@@ -3212,10 +3165,10 @@
         <v>17</v>
       </c>
       <c r="E84">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G84">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="H84" t="s">
         <v>47</v>
@@ -3244,10 +3197,10 @@
         <v>17</v>
       </c>
       <c r="E85">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G85">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="H85" t="s">
         <v>47</v>
@@ -3276,10 +3229,10 @@
         <v>17</v>
       </c>
       <c r="E86">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G86">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="H86" t="s">
         <v>47</v>
@@ -3308,10 +3261,10 @@
         <v>17</v>
       </c>
       <c r="E87">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G87">
-        <v>1.1499999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="H87" t="s">
         <v>47</v>
@@ -3340,10 +3293,10 @@
         <v>17</v>
       </c>
       <c r="E88">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G88">
-        <v>1.1100000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H88" t="s">
         <v>47</v>
@@ -3372,10 +3325,10 @@
         <v>17</v>
       </c>
       <c r="E89">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G89">
-        <v>1.1399999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H89" t="s">
         <v>47</v>
@@ -3404,10 +3357,10 @@
         <v>17</v>
       </c>
       <c r="E90">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G90">
-        <v>1.21</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H90" t="s">
         <v>47</v>
@@ -3436,10 +3389,10 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G91">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="H91" t="s">
         <v>47</v>
@@ -3468,10 +3421,10 @@
         <v>17</v>
       </c>
       <c r="E92">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G92">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="H92" t="s">
         <v>47</v>
@@ -3500,7 +3453,7 @@
         <v>17</v>
       </c>
       <c r="E93">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G93">
         <v>1.39</v>
@@ -3532,10 +3485,10 @@
         <v>17</v>
       </c>
       <c r="E94">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G94">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="H94" t="s">
         <v>47</v>
@@ -3564,10 +3517,10 @@
         <v>17</v>
       </c>
       <c r="E95">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G95">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="H95" t="s">
         <v>47</v>
@@ -3596,10 +3549,10 @@
         <v>17</v>
       </c>
       <c r="E96">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G96">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="H96" t="s">
         <v>47</v>
@@ -3628,10 +3581,10 @@
         <v>17</v>
       </c>
       <c r="E97">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G97">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="H97" t="s">
         <v>47</v>
@@ -3660,10 +3613,10 @@
         <v>17</v>
       </c>
       <c r="E98">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G98">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="H98" t="s">
         <v>47</v>
@@ -3692,10 +3645,10 @@
         <v>17</v>
       </c>
       <c r="E99">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G99">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H99" t="s">
         <v>47</v>
@@ -3724,10 +3677,10 @@
         <v>17</v>
       </c>
       <c r="E100">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G100">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="H100" t="s">
         <v>47</v>
@@ -3756,10 +3709,10 @@
         <v>17</v>
       </c>
       <c r="E101">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G101">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="H101" t="s">
         <v>47</v>
@@ -3788,10 +3741,10 @@
         <v>17</v>
       </c>
       <c r="E102">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G102">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="s">
         <v>47</v>
@@ -3820,10 +3773,10 @@
         <v>17</v>
       </c>
       <c r="E103">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G103">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="H103" t="s">
         <v>47</v>
@@ -3852,10 +3805,10 @@
         <v>17</v>
       </c>
       <c r="E104">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G104">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="s">
         <v>47</v>
@@ -3884,10 +3837,10 @@
         <v>17</v>
       </c>
       <c r="E105">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G105">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H105" t="s">
         <v>47</v>
@@ -3916,10 +3869,10 @@
         <v>17</v>
       </c>
       <c r="E106">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G106">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="H106" t="s">
         <v>47</v>
@@ -3934,17 +3887,37 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H116" s="5"/>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>2020</v>
+      </c>
+      <c r="G107">
+        <v>1.17</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="J107" t="s">
+        <v>48</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L107" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H117" s="5"/>
@@ -4021,8 +3994,11 @@
     <row r="141" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H141" s="5"/>
     </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H142" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:L304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L305" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
